--- a/jsd/com/chixing/day10220/day16/wk/Q3/student.xlsx
+++ b/jsd/com/chixing/day10220/day16/wk/Q3/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codes\Java\J01\workspace\jsd\com\chixing\day10220\day16\wk\Q3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE48C587-E47B-4F81-B13F-4C7AA61FC5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B41509-82D4-403B-BEA9-A10D383617B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>椎名利希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>长崎素世</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,10 @@
   </si>
   <si>
     <t>祐天寺若麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椎名立希</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +436,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,47 +489,47 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
